--- a/db/Book1.xlsx
+++ b/db/Book1.xlsx
@@ -24,18 +24,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
-  <si>
-    <t>One</t>
-  </si>
-  <si>
-    <t>Two</t>
-  </si>
-  <si>
-    <t>Three</t>
-  </si>
-  <si>
-    <t>Num</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Masterplan</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>MP</t>
   </si>
 </sst>
 </file>
@@ -71,8 +95,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,62 +417,66 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
